--- a/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>53.886047857119834</v>
+        <v>53.886047292788611</v>
       </c>
       <c r="C2">
-        <v>39.627112981645226</v>
+        <v>39.627112478711766</v>
       </c>
       <c r="D2">
-        <v>49.38564662024131</v>
+        <v>49.385646127060213</v>
       </c>
       <c r="E2">
-        <v>70.616037577892541</v>
+        <v>70.616035876492035</v>
       </c>
       <c r="F2">
-        <v>34.172477383416371</v>
+        <v>34.172477094919429</v>
       </c>
       <c r="G2">
-        <v>38.879817258468762</v>
+        <v>38.879817005131038</v>
       </c>
       <c r="H2">
-        <v>54.153844021031645</v>
+        <v>54.153843455636967</v>
       </c>
       <c r="I2">
-        <v>44.23196570129538</v>
+        <v>44.231965451605397</v>
       </c>
       <c r="J2">
-        <v>57.426207177153167</v>
+        <v>57.426206618837689</v>
       </c>
       <c r="K2">
-        <v>55.833719496525134</v>
+        <v>55.833718908581233</v>
       </c>
       <c r="L2">
-        <v>43.727262115074581</v>
+        <v>43.72726157825479</v>
       </c>
       <c r="M2">
-        <v>40.226795945058882</v>
+        <v>40.226795761325427</v>
       </c>
       <c r="N2">
-        <v>46.069471358800868</v>
+        <v>46.069470936912765</v>
       </c>
       <c r="O2">
-        <v>21.65984859476097</v>
+        <v>21.659848499943891</v>
       </c>
       <c r="P2">
-        <v>47.806079386458421</v>
+        <v>47.806078891121288</v>
       </c>
       <c r="Q2">
-        <v>28.835937119028543</v>
+        <v>28.835936984645283</v>
       </c>
       <c r="R2">
-        <v>45.338958723437401</v>
+        <v>45.338958588367881</v>
       </c>
       <c r="S2">
-        <v>75.376291191863231</v>
+        <v>75.376290697281902</v>
       </c>
       <c r="T2">
-        <v>40.562163439973958</v>
+        <v>40.562163364559595</v>
       </c>
       <c r="U2">
-        <v>25.039032236308284</v>
+        <v>25.039032044415126</v>
       </c>
       <c r="V2">
-        <v>61.611692475137787</v>
+        <v>61.611692062347927</v>
       </c>
       <c r="W2">
-        <v>51.526736750897676</v>
+        <v>51.526736306978222</v>
       </c>
       <c r="X2">
-        <v>35.84560932508888</v>
+        <v>35.845608801334805</v>
       </c>
       <c r="Y2">
-        <v>31.349960710755816</v>
+        <v>31.349960581078296</v>
       </c>
       <c r="Z2">
-        <v>13.052702851088162</v>
+        <v>13.05270282960625</v>
       </c>
       <c r="AA2">
-        <v>88.789303406830726</v>
+        <v>88.789301937543343</v>
       </c>
       <c r="AB2">
-        <v>42.020850614548536</v>
+        <v>42.020849856601373</v>
       </c>
       <c r="AC2">
-        <v>40.214018487964921</v>
+        <v>40.214018129171578</v>
       </c>
       <c r="AD2">
-        <v>50.492985592024489</v>
+        <v>50.492984049478082</v>
       </c>
       <c r="AE2">
-        <v>44.452313782966925</v>
+        <v>44.452313120872311</v>
       </c>
       <c r="AF2">
-        <v>42.135518098766575</v>
+        <v>42.135517774933014</v>
       </c>
       <c r="AG2">
-        <v>56.236998900994109</v>
+        <v>56.236998009493597</v>
       </c>
       <c r="AH2">
-        <v>36.404724735529641</v>
+        <v>36.40472452276358</v>
       </c>
       <c r="AI2">
-        <v>53.139380299442209</v>
+        <v>53.139379784016384</v>
       </c>
       <c r="AJ2">
-        <v>78.932048397836851</v>
+        <v>78.932047644966559</v>
       </c>
       <c r="AK2">
-        <v>43.417320786081902</v>
+        <v>43.417320075774036</v>
       </c>
       <c r="AL2">
-        <v>50.816521904959075</v>
+        <v>50.816521528363069</v>
       </c>
       <c r="AM2">
-        <v>54.357261986185023</v>
+        <v>54.357261537726551</v>
       </c>
       <c r="AN2">
-        <v>19.582678140548783</v>
+        <v>19.58267808762205</v>
       </c>
       <c r="AO2">
-        <v>42.982112800787448</v>
+        <v>42.982112459642799</v>
       </c>
       <c r="AP2">
-        <v>26.94080768420406</v>
+        <v>26.940807601351366</v>
       </c>
       <c r="AQ2">
-        <v>41.032916333655024</v>
+        <v>41.0329161202149</v>
       </c>
       <c r="AR2">
-        <v>51.98671560386105</v>
+        <v>51.986715166879705</v>
       </c>
       <c r="AS2">
-        <v>76.426744262516593</v>
+        <v>76.426743517703414</v>
       </c>
       <c r="AT2">
-        <v>16.352866960151111</v>
+        <v>16.352866905051751</v>
       </c>
       <c r="AU2">
-        <v>59.019025057558636</v>
+        <v>59.019024757696052</v>
       </c>
       <c r="AV2">
-        <v>52.865384849174752</v>
+        <v>52.865383863627819</v>
       </c>
       <c r="AW2">
-        <v>20.563915321230009</v>
+        <v>20.563915127902579</v>
       </c>
       <c r="AX2">
-        <v>39.633136303010794</v>
+        <v>39.633135868348944</v>
       </c>
       <c r="AY2">
-        <v>21.668937129701725</v>
+        <v>21.668936957233402</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67.254424296889312</v>
+        <v>67.254423219617664</v>
       </c>
       <c r="C3">
-        <v>45.932078477172347</v>
+        <v>45.932077785522281</v>
       </c>
       <c r="D3">
-        <v>23.203593545975512</v>
+        <v>23.203593400868986</v>
       </c>
       <c r="E3">
-        <v>75.556689850225325</v>
+        <v>75.556689336630654</v>
       </c>
       <c r="F3">
-        <v>21.66523670321461</v>
+        <v>21.665236500945252</v>
       </c>
       <c r="G3">
-        <v>51.919324784461956</v>
+        <v>51.919324391979792</v>
       </c>
       <c r="H3">
-        <v>54.176363421133026</v>
+        <v>54.176362904800982</v>
       </c>
       <c r="I3">
-        <v>33.33819927628555</v>
+        <v>33.338199202490017</v>
       </c>
       <c r="J3">
-        <v>51.681447712005877</v>
+        <v>51.681447161072349</v>
       </c>
       <c r="K3">
-        <v>42.580395953829793</v>
+        <v>42.580395753773104</v>
       </c>
       <c r="L3">
-        <v>41.052787118680357</v>
+        <v>41.052786819545439</v>
       </c>
       <c r="M3">
-        <v>56.593579156541537</v>
+        <v>56.59690298969111</v>
       </c>
       <c r="N3">
-        <v>43.544802373165524</v>
+        <v>43.54480212202661</v>
       </c>
       <c r="O3">
-        <v>20.879199691273612</v>
+        <v>20.879199632990222</v>
       </c>
       <c r="P3">
-        <v>65.368849954486819</v>
+        <v>65.368849272960389</v>
       </c>
       <c r="Q3">
-        <v>33.73377919063099</v>
+        <v>33.73377902995535</v>
       </c>
       <c r="R3">
-        <v>38.590510815977268</v>
+        <v>38.590510427656561</v>
       </c>
       <c r="S3">
-        <v>45.209256456248298</v>
+        <v>45.209256235357884</v>
       </c>
       <c r="T3">
-        <v>42.174840264196412</v>
+        <v>42.174840140781882</v>
       </c>
       <c r="U3">
-        <v>25.436977259505802</v>
+        <v>25.436977173918557</v>
       </c>
       <c r="V3">
-        <v>42.560437750104612</v>
+        <v>42.560437574939655</v>
       </c>
       <c r="W3">
-        <v>28.496799946970761</v>
+        <v>28.496799747669417</v>
       </c>
       <c r="X3">
-        <v>24.269105141497064</v>
+        <v>24.269104960977515</v>
       </c>
       <c r="Y3">
-        <v>27.124724741552775</v>
+        <v>27.124724642235154</v>
       </c>
       <c r="Z3">
-        <v>16.730542941408412</v>
+        <v>16.730542911569547</v>
       </c>
       <c r="AA3">
-        <v>76.325780387511202</v>
+        <v>76.325779025279417</v>
       </c>
       <c r="AB3">
-        <v>56.568446723635134</v>
+        <v>56.568445712833082</v>
       </c>
       <c r="AC3">
-        <v>36.591739854701444</v>
+        <v>36.591739551299611</v>
       </c>
       <c r="AD3">
-        <v>64.010622171558239</v>
+        <v>64.010621317304</v>
       </c>
       <c r="AE3">
-        <v>37.373013690853277</v>
+        <v>37.37301330095503</v>
       </c>
       <c r="AF3">
-        <v>54.667982635023087</v>
+        <v>54.667982061713211</v>
       </c>
       <c r="AG3">
-        <v>66.231893195646592</v>
+        <v>66.231892143798447</v>
       </c>
       <c r="AH3">
-        <v>62.245067643030048</v>
+        <v>62.245066436045619</v>
       </c>
       <c r="AI3">
-        <v>58.200067340661363</v>
+        <v>58.20006644135298</v>
       </c>
       <c r="AJ3">
-        <v>83.498530279939104</v>
+        <v>83.498529778640233</v>
       </c>
       <c r="AK3">
-        <v>63.797863910407401</v>
+        <v>63.797862969883703</v>
       </c>
       <c r="AL3">
-        <v>53.235075798898741</v>
+        <v>53.235075255808042</v>
       </c>
       <c r="AM3">
-        <v>77.871017498501402</v>
+        <v>77.871016387090322</v>
       </c>
       <c r="AN3">
-        <v>30.115596345425125</v>
+        <v>30.115596098223989</v>
       </c>
       <c r="AO3">
-        <v>84.88941496655012</v>
+        <v>84.889413874616352</v>
       </c>
       <c r="AP3">
-        <v>29.842686847829654</v>
+        <v>29.842686737983524</v>
       </c>
       <c r="AQ3">
-        <v>27.558271280029917</v>
+        <v>27.558271159999133</v>
       </c>
       <c r="AR3">
-        <v>39.173282024331058</v>
+        <v>39.173281876152771</v>
       </c>
       <c r="AS3">
-        <v>64.546895139376957</v>
+        <v>64.546894379462046</v>
       </c>
       <c r="AT3">
-        <v>18.576324754380241</v>
+        <v>18.576324678349057</v>
       </c>
       <c r="AU3">
-        <v>81.204665995538875</v>
+        <v>81.204665249581467</v>
       </c>
       <c r="AV3">
-        <v>47.007236616454627</v>
+        <v>47.007235918626876</v>
       </c>
       <c r="AW3">
-        <v>45.867029605447897</v>
+        <v>45.867028657953306</v>
       </c>
       <c r="AX3">
-        <v>43.016441138791485</v>
+        <v>43.016440829299412</v>
       </c>
       <c r="AY3">
-        <v>30.64245373026899</v>
+        <v>30.642453522538496</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>53.886047292788611</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>39.627112478711766</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>49.385646127060213</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>70.616035876492035</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>34.172477094919429</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>38.879817005131038</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>54.153843455636967</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>44.231965451605397</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>57.426206618837689</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>55.833718908581233</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>43.72726157825479</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>40.226795761325427</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>46.069470936912765</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>21.659848499943891</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>47.806078891121288</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>28.835936984645283</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>45.338958588367881</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>75.376290697281902</v>
@@ -588,55 +477,55 @@
         <v>13.05270282960625</v>
       </c>
       <c r="AA2">
-        <v>88.789301937543343</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>42.020849856601373</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>40.214018129171578</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>50.492984049478082</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>44.452313120872311</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>42.135517774933014</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>56.236998009493597</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>36.40472452276358</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>53.139379784016384</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>78.932047644966559</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>43.417320075774036</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>50.816521528363069</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>54.357261537726551</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>19.58267808762205</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>42.982112459642799</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>26.940807601351366</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>41.0329161202149</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>51.986715166879705</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>67.254423219617664</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>45.932077785522281</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>23.203593400868986</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>75.556689336630654</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>21.665236500945252</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>51.919324391979792</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>54.176362904800982</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>33.338199202490017</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>51.681447161072349</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>42.580395753773104</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>41.052786819545439</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>56.59690298969111</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>43.54480212202661</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>20.879199632990222</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>65.368849272960389</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>33.73377902995535</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>38.590510427656561</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>45.209256235357884</v>
@@ -743,55 +629,55 @@
         <v>16.730542911569547</v>
       </c>
       <c r="AA3">
-        <v>76.325779025279417</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>56.568445712833082</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>36.591739551299611</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>64.010621317304</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>37.37301330095503</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>54.667982061713211</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>66.231892143798447</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>62.245066436045619</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>58.20006644135298</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>83.498529778640233</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>63.797862969883703</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>53.235075255808042</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>77.871016387090322</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>30.115596098223989</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>84.889413874616352</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>29.842686737983524</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>27.558271159999133</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>39.173281876152771</v>

--- a/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>58.8493871761371</v>
+        <v>23.218118119056388</v>
       </c>
       <c r="C2">
-        <v>42.664273186244408</v>
+        <v>46.915574224234724</v>
       </c>
       <c r="D2">
-        <v>53.819910057860632</v>
+        <v>20.821599490754718</v>
       </c>
       <c r="E2">
-        <v>77.57298198122561</v>
+        <v>44.053825463366024</v>
       </c>
       <c r="F2">
         <v>36.102830890859835</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73.26348329679432</v>
+        <v>21.561630270302388</v>
       </c>
       <c r="C3">
-        <v>50.125192802308639</v>
+        <v>41.479346961995333</v>
       </c>
       <c r="D3">
-        <v>24.257179325672027</v>
+        <v>32.706277011313034</v>
       </c>
       <c r="E3">
-        <v>81.001436101520682</v>
+        <v>28.425872578541874</v>
       </c>
       <c r="F3">
         <v>23.282974198740501</v>

--- a/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>58.8493871761371</v>
+        <v>49.443367045917803</v>
       </c>
       <c r="C2">
-        <v>42.664273186244408</v>
+        <v>23.218118119056388</v>
       </c>
       <c r="D2">
-        <v>53.819910057860632</v>
+        <v>58.410035592184492</v>
       </c>
       <c r="E2">
-        <v>77.57298198122561</v>
+        <v>20.821599490754718</v>
       </c>
       <c r="F2">
         <v>36.102830890859835</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>73.26348329679432</v>
+        <v>46.028977094461943</v>
       </c>
       <c r="C3">
-        <v>50.125192802308639</v>
+        <v>21.561630270302388</v>
       </c>
       <c r="D3">
-        <v>24.257179325672027</v>
+        <v>84.036402381209641</v>
       </c>
       <c r="E3">
-        <v>81.001436101520682</v>
+        <v>32.706277011313034</v>
       </c>
       <c r="F3">
         <v>23.282974198740501</v>

--- a/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
+++ b/data_output/prism_passive/all_passive_torque at subject max torque.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>58.849386598550133</v>
+      </c>
+      <c r="C2">
+        <v>42.66427267144028</v>
+      </c>
+      <c r="D2">
+        <v>53.819909556952837</v>
+      </c>
+      <c r="E2">
+        <v>77.572980158276835</v>
+      </c>
+      <c r="F2">
+        <v>36.102830585574402</v>
+      </c>
+      <c r="G2">
+        <v>41.310834250802806</v>
+      </c>
+      <c r="H2">
+        <v>58.142472071151197</v>
+      </c>
+      <c r="I2">
+        <v>47.19714501158677</v>
+      </c>
+      <c r="J2">
+        <v>62.055657581578579</v>
+      </c>
+      <c r="K2">
+        <v>60.154704309626375</v>
+      </c>
+      <c r="L2">
+        <v>47.455162272168089</v>
+      </c>
+      <c r="M2">
+        <v>41.533318357311146</v>
+      </c>
+      <c r="N2">
         <v>49.443367045917803</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>23.218118119056388</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>50.226431085206308</v>
+      </c>
+      <c r="Q2">
+        <v>30.472651706759809</v>
+      </c>
+      <c r="R2">
+        <v>46.915574224234724</v>
+      </c>
+      <c r="S2">
+        <v>78.958287006979688</v>
+      </c>
+      <c r="T2">
+        <v>41.880542598222547</v>
+      </c>
+      <c r="U2">
+        <v>26.033090572165197</v>
+      </c>
+      <c r="V2">
+        <v>66.012306842144383</v>
+      </c>
+      <c r="W2">
+        <v>55.995813709323521</v>
+      </c>
+      <c r="X2">
+        <v>38.493219342726661</v>
+      </c>
+      <c r="Y2">
+        <v>32.714081501621401</v>
+      </c>
+      <c r="Z2">
+        <v>13.342175918867461</v>
+      </c>
+      <c r="AA2">
+        <v>98.203574175424748</v>
+      </c>
+      <c r="AB2">
+        <v>45.853281759940074</v>
+      </c>
+      <c r="AC2">
+        <v>43.725334293774701</v>
+      </c>
+      <c r="AD2">
+        <v>55.482640550166785</v>
+      </c>
+      <c r="AE2">
+        <v>48.337140001677049</v>
+      </c>
+      <c r="AF2">
+        <v>44.566091808569034</v>
+      </c>
+      <c r="AG2">
+        <v>61.208667605074744</v>
+      </c>
+      <c r="AH2">
+        <v>38.579294862307037</v>
+      </c>
+      <c r="AI2">
+        <v>57.613754816779277</v>
+      </c>
+      <c r="AJ2">
+        <v>85.654764517893739</v>
+      </c>
+      <c r="AK2">
+        <v>47.351119114132644</v>
+      </c>
+      <c r="AL2">
+        <v>54.51655128118756</v>
+      </c>
+      <c r="AM2">
         <v>58.410035592184492</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>20.821599490754718</v>
       </c>
-      <c r="F2">
-        <v>36.102830890859835</v>
-      </c>
-      <c r="G2">
-        <v>41.31083451735217</v>
-      </c>
-      <c r="H2">
-        <v>58.142472641049942</v>
-      </c>
-      <c r="I2">
-        <v>47.197145276089408</v>
-      </c>
-      <c r="J2">
-        <v>62.055658144711835</v>
-      </c>
-      <c r="K2">
-        <v>60.154704904170934</v>
-      </c>
-      <c r="L2">
-        <v>47.455162824241434</v>
-      </c>
-      <c r="M2">
-        <v>41.533318545681901</v>
-      </c>
-      <c r="N2">
-        <v>49.443367467771679</v>
-      </c>
-      <c r="O2">
-        <v>23.218118205663654</v>
-      </c>
-      <c r="P2">
-        <v>50.226431605408088</v>
-      </c>
-      <c r="Q2">
-        <v>30.472651848842673</v>
-      </c>
-      <c r="R2">
-        <v>46.915574364578276</v>
-      </c>
-      <c r="S2">
-        <v>78.958287517883221</v>
-      </c>
-      <c r="T2">
-        <v>41.880542674115055</v>
-      </c>
-      <c r="U2">
-        <v>26.033090772067862</v>
-      </c>
-      <c r="V2">
-        <v>66.012307243213385</v>
-      </c>
-      <c r="W2">
-        <v>55.995814154921241</v>
-      </c>
-      <c r="X2">
-        <v>38.49321987996602</v>
-      </c>
-      <c r="Y2">
-        <v>32.714081637257493</v>
-      </c>
-      <c r="Z2">
-        <v>13.342175940781411</v>
-      </c>
-      <c r="AA2">
-        <v>98.203575733500216</v>
-      </c>
-      <c r="AB2">
-        <v>45.85328255719498</v>
-      </c>
-      <c r="AC2">
-        <v>43.725334655225559</v>
-      </c>
-      <c r="AD2">
-        <v>55.482642213023219</v>
-      </c>
-      <c r="AE2">
-        <v>48.337140691035948</v>
-      </c>
-      <c r="AF2">
-        <v>44.566092149948304</v>
-      </c>
-      <c r="AG2">
-        <v>61.208668534610126</v>
-      </c>
-      <c r="AH2">
-        <v>38.579295085791237</v>
-      </c>
-      <c r="AI2">
-        <v>57.61375533838649</v>
-      </c>
-      <c r="AJ2">
-        <v>85.654765278962316</v>
-      </c>
-      <c r="AK2">
-        <v>47.351119857882338</v>
-      </c>
-      <c r="AL2">
-        <v>54.516551650914835</v>
-      </c>
-      <c r="AM2">
-        <v>58.41003603757148</v>
-      </c>
-      <c r="AN2">
-        <v>20.821599546866022</v>
-      </c>
       <c r="AO2">
-        <v>46.049853207672065</v>
+        <v>46.049852872278258</v>
       </c>
       <c r="AP2">
-        <v>27.394352620036884</v>
+        <v>27.394352524093858</v>
       </c>
       <c r="AQ2">
-        <v>44.053825664471766</v>
+        <v>44.053825463366024</v>
       </c>
       <c r="AR2">
-        <v>54.581167097967842</v>
+        <v>54.581166641340836</v>
       </c>
       <c r="AS2">
-        <v>83.223292812485241</v>
+        <v>83.223292053669226</v>
       </c>
       <c r="AT2">
-        <v>17.071302741560547</v>
+        <v>17.071302684169051</v>
       </c>
       <c r="AU2">
-        <v>63.033523613892953</v>
+        <v>63.033523293563569</v>
       </c>
       <c r="AV2">
-        <v>58.013936982664298</v>
+        <v>58.013935940422733</v>
       </c>
       <c r="AW2">
-        <v>22.045109054098798</v>
+        <v>22.045108860881768</v>
       </c>
       <c r="AX2">
-        <v>42.978994377138179</v>
+        <v>42.978993933756989</v>
       </c>
       <c r="AY2">
-        <v>23.028447817504702</v>
+        <v>23.02844763452681</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>73.263482168564437</v>
+      </c>
+      <c r="C3">
+        <v>50.125192079617932</v>
+      </c>
+      <c r="D3">
+        <v>24.257179174204619</v>
+      </c>
+      <c r="E3">
+        <v>81.001435598455359</v>
+      </c>
+      <c r="F3">
+        <v>23.282973996462033</v>
+      </c>
+      <c r="G3">
+        <v>55.722795992772227</v>
+      </c>
+      <c r="H3">
+        <v>58.013200854813704</v>
+      </c>
+      <c r="I3">
+        <v>34.494851263384106</v>
+      </c>
+      <c r="J3">
+        <v>55.761930180257856</v>
+      </c>
+      <c r="K3">
+        <v>44.811489670522214</v>
+      </c>
+      <c r="L3">
+        <v>43.86162726170781</v>
+      </c>
+      <c r="M3">
+        <v>60.141001937244276</v>
+      </c>
+      <c r="N3">
         <v>46.028977094461943</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>21.561630270302388</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>69.384517059993001</v>
+      </c>
+      <c r="Q3">
+        <v>35.578493968600647</v>
+      </c>
+      <c r="R3">
+        <v>41.479346961995333</v>
+      </c>
+      <c r="S3">
+        <v>46.738136529142103</v>
+      </c>
+      <c r="T3">
+        <v>43.908771744992883</v>
+      </c>
+      <c r="U3">
+        <v>26.143082886815716</v>
+      </c>
+      <c r="V3">
+        <v>43.634399363265885</v>
+      </c>
+      <c r="W3">
+        <v>30.165290453725571</v>
+      </c>
+      <c r="X3">
+        <v>25.292341277708605</v>
+      </c>
+      <c r="Y3">
+        <v>28.115581428475519</v>
+      </c>
+      <c r="Z3">
+        <v>17.13721439784543</v>
+      </c>
+      <c r="AA3">
+        <v>84.402052013744921</v>
+      </c>
+      <c r="AB3">
+        <v>62.154260029172939</v>
+      </c>
+      <c r="AC3">
+        <v>39.935341489041356</v>
+      </c>
+      <c r="AD3">
+        <v>70.225977024308762</v>
+      </c>
+      <c r="AE3">
+        <v>40.840132845964114</v>
+      </c>
+      <c r="AF3">
+        <v>59.13792900708588</v>
+      </c>
+      <c r="AG3">
+        <v>72.395715302476958</v>
+      </c>
+      <c r="AH3">
+        <v>65.55757824648019</v>
+      </c>
+      <c r="AI3">
+        <v>63.985809866093916</v>
+      </c>
+      <c r="AJ3">
+        <v>91.425813561498103</v>
+      </c>
+      <c r="AK3">
+        <v>70.476528849359966</v>
+      </c>
+      <c r="AL3">
+        <v>57.149393358210858</v>
+      </c>
+      <c r="AM3">
         <v>84.036402381209641</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>32.706277011313034</v>
       </c>
-      <c r="F3">
-        <v>23.282974198740501</v>
-      </c>
-      <c r="G3">
-        <v>55.722796377953692</v>
-      </c>
-      <c r="H3">
-        <v>58.013201401603737</v>
-      </c>
-      <c r="I3">
-        <v>34.494851339931976</v>
-      </c>
-      <c r="J3">
-        <v>55.761930739569301</v>
-      </c>
-      <c r="K3">
-        <v>44.811489879072504</v>
-      </c>
-      <c r="L3">
-        <v>43.861627581371444</v>
-      </c>
-      <c r="M3">
-        <v>60.137507624774734</v>
-      </c>
-      <c r="N3">
-        <v>46.028977359586925</v>
-      </c>
-      <c r="O3">
-        <v>21.561630329910894</v>
-      </c>
-      <c r="P3">
-        <v>69.384517785815873</v>
-      </c>
-      <c r="Q3">
-        <v>35.57849413761295</v>
-      </c>
-      <c r="R3">
-        <v>41.479347353490034</v>
-      </c>
-      <c r="S3">
-        <v>46.738136757611727</v>
-      </c>
-      <c r="T3">
-        <v>43.908771873907121</v>
-      </c>
-      <c r="U3">
-        <v>26.143082974959309</v>
-      </c>
-      <c r="V3">
-        <v>43.634399541948994</v>
-      </c>
-      <c r="W3">
-        <v>30.165290659692385</v>
-      </c>
-      <c r="X3">
-        <v>25.292341465649027</v>
-      </c>
-      <c r="Y3">
-        <v>28.115581531224777</v>
-      </c>
-      <c r="Z3">
-        <v>17.137214428789427</v>
-      </c>
-      <c r="AA3">
-        <v>84.402053465299957</v>
-      </c>
-      <c r="AB3">
-        <v>62.15426109812492</v>
-      </c>
-      <c r="AC3">
-        <v>39.935341793805442</v>
-      </c>
-      <c r="AD3">
-        <v>70.225977915109425</v>
-      </c>
-      <c r="AE3">
-        <v>40.84013324357214</v>
-      </c>
-      <c r="AF3">
-        <v>59.137929588886529</v>
-      </c>
-      <c r="AG3">
-        <v>72.395716403449825</v>
-      </c>
-      <c r="AH3">
-        <v>65.557579659079849</v>
-      </c>
-      <c r="AI3">
-        <v>63.985810810514465</v>
-      </c>
-      <c r="AJ3">
-        <v>91.425814048024293</v>
-      </c>
-      <c r="AK3">
-        <v>70.476529841602471</v>
-      </c>
-      <c r="AL3">
-        <v>57.149393904876298</v>
-      </c>
-      <c r="AM3">
-        <v>84.036403527416823</v>
-      </c>
-      <c r="AN3">
-        <v>32.706277259263778</v>
-      </c>
       <c r="AO3">
-        <v>91.900696774537735</v>
+        <v>91.900695651774868</v>
       </c>
       <c r="AP3">
-        <v>31.668006889870966</v>
+        <v>31.668006772740082</v>
       </c>
       <c r="AQ3">
-        <v>28.42587271482148</v>
+        <v>28.425872578541874</v>
       </c>
       <c r="AR3">
-        <v>40.657946012210914</v>
+        <v>40.657945858456912</v>
       </c>
       <c r="AS3">
-        <v>70.172431860039865</v>
+        <v>70.172431079248852</v>
       </c>
       <c r="AT3">
-        <v>19.69277553691516</v>
+        <v>19.692775456588222</v>
       </c>
       <c r="AU3">
-        <v>88.180382632533338</v>
+        <v>88.180381880066136</v>
       </c>
       <c r="AV3">
-        <v>51.186695267232487</v>
+        <v>51.18669454005817</v>
       </c>
       <c r="AW3">
-        <v>50.067874002638568</v>
+        <v>50.067873000668079</v>
       </c>
       <c r="AX3">
-        <v>46.443859200150733</v>
+        <v>46.443858895472459</v>
       </c>
       <c r="AY3">
-        <v>32.271361752750849</v>
+        <v>32.271361534113829</v>
       </c>
     </row>
   </sheetData>
